--- a/base/src/main/resources/excelTemp/st016_excel.xlsx
+++ b/base/src/main/resources/excelTemp/st016_excel.xlsx
@@ -264,19 +264,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -565,7 +565,7 @@
   <dimension ref="A2:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -614,34 +614,34 @@
     </row>
     <row r="5" spans="1:10" ht="11.45" customHeight="1"/>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="7" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
@@ -657,9 +657,9 @@
       <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="25.9" customHeight="1">
       <c r="A8" s="2" t="s">
